--- a/Data/EC/NIT-9004198831.xlsx
+++ b/Data/EC/NIT-9004198831.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49DD80E2-2762-4AE1-81AB-A3C8B04034D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF846BB0-E553-442B-8408-DF5C39C79A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70B0F64D-CA7A-4264-B764-57C3E226EEEC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{289B2033-553D-4FB8-993A-5F7015FFD572}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,106 +71,91 @@
     <t>GLESI LUCIA GONZALEZ BARRAGAN</t>
   </si>
   <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1101462041</t>
+  </si>
+  <si>
+    <t>ANGEL ROLANDO VANEGAS MARTINEZ</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1192781377</t>
+  </si>
+  <si>
+    <t>ENAIRO MIGUEL DIAZ BURGOS</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1047452160</t>
+  </si>
+  <si>
+    <t>STEFANNY BERDUGO PALOMINO</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>2101</t>
   </si>
   <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>3811304</t>
-  </si>
-  <si>
-    <t>FLORENTINO VELASQUEZ RAMOS</t>
-  </si>
-  <si>
-    <t>1101462041</t>
-  </si>
-  <si>
-    <t>ANGEL ROLANDO VANEGAS MARTINEZ</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1047452160</t>
-  </si>
-  <si>
-    <t>STEFANNY BERDUGO PALOMINO</t>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
   </si>
   <si>
     <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1047499506</t>
-  </si>
-  <si>
-    <t>CARLOS DANIEL OSPINO TEHERAN</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1192781377</t>
-  </si>
-  <si>
-    <t>ENAIRO MIGUEL DIAZ BURGOS</t>
-  </si>
-  <si>
-    <t>1904</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -269,7 +254,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -282,9 +269,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -484,23 +469,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,10 +513,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,7 +569,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CE3D26-FB9A-A799-0A72-5028C2CCC889}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EAF11B0-99B5-BC09-B819-29A57746071C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -935,8 +920,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7223D406-B80A-439B-B659-8F098A451115}">
-  <dimension ref="B2:J47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6290771-74D8-4F51-A590-D0F99FF6B2C8}">
+  <dimension ref="B2:J44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -960,7 +945,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1005,7 +990,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1037,12 +1022,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1632841</v>
+        <v>1559492</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1053,17 +1038,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F13" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1090,13 +1075,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1113,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>35112</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1150,19 +1135,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1179,7 +1164,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>27578</v>
@@ -1196,19 +1181,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1219,19 +1204,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F21" s="18">
-        <v>29509</v>
+        <v>80000</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>2000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1248,10 +1233,10 @@
         <v>21</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F22" s="18">
-        <v>56000</v>
+        <v>80000</v>
       </c>
       <c r="G22" s="18">
         <v>2000000</v>
@@ -1271,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F23" s="18">
         <v>80000</v>
@@ -1294,7 +1279,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F24" s="18">
         <v>80000</v>
@@ -1317,7 +1302,7 @@
         <v>21</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F25" s="18">
         <v>80000</v>
@@ -1340,7 +1325,7 @@
         <v>21</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F26" s="18">
         <v>80000</v>
@@ -1363,7 +1348,7 @@
         <v>21</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F27" s="18">
         <v>80000</v>
@@ -1386,7 +1371,7 @@
         <v>21</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F28" s="18">
         <v>80000</v>
@@ -1409,7 +1394,7 @@
         <v>21</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F29" s="18">
         <v>80000</v>
@@ -1432,7 +1417,7 @@
         <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F30" s="18">
         <v>80000</v>
@@ -1455,7 +1440,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F31" s="18">
         <v>80000</v>
@@ -1478,7 +1463,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F32" s="18">
         <v>80000</v>
@@ -1501,7 +1486,7 @@
         <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F33" s="18">
         <v>80000</v>
@@ -1524,7 +1509,7 @@
         <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F34" s="18">
         <v>80000</v>
@@ -1547,7 +1532,7 @@
         <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F35" s="18">
         <v>80000</v>
@@ -1570,7 +1555,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F36" s="18">
         <v>80000</v>
@@ -1593,7 +1578,7 @@
         <v>21</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F37" s="18">
         <v>80000</v>
@@ -1606,125 +1591,56 @@
       <c r="J37" s="20"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G38" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
+      <c r="B38" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="18">
-        <v>3125</v>
-      </c>
-      <c r="G40" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="24">
-        <v>31249</v>
-      </c>
-      <c r="G41" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="26"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="H46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="H47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="F38" s="24">
+        <v>56000</v>
+      </c>
+      <c r="G38" s="24">
+        <v>2000000</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="26"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="H43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="H44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H43:J43"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
